--- a/todos.xlsx
+++ b/todos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/projects/BrickInvaders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wsl\BrickInvaders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63860375-72B4-FD42-82E8-A62746F00E94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652F88C2-A2B3-4FE3-8F1A-921E543485F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5440" windowWidth="28040" windowHeight="17360" xr2:uid="{C08123F5-968D-214C-866F-0239E5C12D11}"/>
+    <workbookView xWindow="61260" yWindow="14370" windowWidth="21600" windowHeight="13230" xr2:uid="{C08123F5-968D-214C-866F-0239E5C12D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>mehrere aliens die sich seitwärts und langsam nach unten bewegen</t>
   </si>
@@ -124,7 +124,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -439,16 +439,16 @@
   <dimension ref="A3:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="44" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -464,7 +464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -472,7 +472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -480,7 +480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -488,7 +488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -496,7 +496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -504,37 +504,43 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>

--- a/todos.xlsx
+++ b/todos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wsl\BrickInvaders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/projects/BrickInvaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652F88C2-A2B3-4FE3-8F1A-921E543485F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C174B616-ACFB-9640-99F2-EB865817C1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61260" yWindow="14370" windowWidth="21600" windowHeight="13230" xr2:uid="{C08123F5-968D-214C-866F-0239E5C12D11}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{C08123F5-968D-214C-866F-0239E5C12D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>mehrere aliens die sich seitwärts und langsam nach unten bewegen</t>
   </si>
@@ -57,9 +57,6 @@
     <t>highscore in file schreiben</t>
   </si>
   <si>
-    <t>aliens werden mit der zeit schneller</t>
-  </si>
-  <si>
     <t>powerups</t>
   </si>
   <si>
@@ -82,14 +79,43 @@
   </si>
   <si>
     <t>game over wenn aliens am boden</t>
+  </si>
+  <si>
+    <t>start screen</t>
+  </si>
+  <si>
+    <t>game won</t>
+  </si>
+  <si>
+    <t>animations (bewegung aliens, alien getroffen)</t>
+  </si>
+  <si>
+    <t>verschieden aussehende aliens in jeder reihe</t>
+  </si>
+  <si>
+    <t>aliens werden mit der zeit schneller (innerhalb level)</t>
+  </si>
+  <si>
+    <t>verschiedene aliens geben unterschiedlich punkte</t>
+  </si>
+  <si>
+    <t>Mögliche Erweiterungen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,18 +139,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -140,7 +178,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -436,113 +474,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FA4300-58F2-9E43-BEE3-42D86CFD1808}">
-  <dimension ref="A3:B20"/>
+  <dimension ref="A3:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6484375" customWidth="1"/>
+    <col min="1" max="1" width="47.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/todos.xlsx
+++ b/todos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/projects/BrickInvaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C174B616-ACFB-9640-99F2-EB865817C1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8827A21B-1926-A047-AEBA-E1EA5A3CAEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{C08123F5-968D-214C-866F-0239E5C12D11}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>mehrere aliens die sich seitwärts und langsam nach unten bewegen</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>Mögliche Erweiterungen</t>
+  </si>
+  <si>
+    <t>code kommentieren</t>
+  </si>
+  <si>
+    <t>levels zufällig generieren</t>
+  </si>
+  <si>
+    <t>tests schreiben</t>
   </si>
 </sst>
 </file>
@@ -474,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FA4300-58F2-9E43-BEE3-42D86CFD1808}">
-  <dimension ref="A3:B25"/>
+  <dimension ref="A3:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,55 +571,79 @@
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
